--- a/Excel-XLSX/UN-BAH.xlsx
+++ b/Excel-XLSX/UN-BAH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,499 @@
     <t>1</t>
   </si>
   <si>
-    <t>Yt8XLu</t>
+    <t>Fj61Yb</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>United Rep. of Tanzania</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>1974</t>
@@ -102,490 +594,16 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>BHR</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>United Rep. of Tanzania</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>1650</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>JOR</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
   </si>
 </sst>
 </file>
@@ -970,7 +988,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1072,45 +1090,45 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1125,13 +1143,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>37</v>
@@ -1140,45 +1158,45 @@
         <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1193,60 +1211,60 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1261,60 +1279,60 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1329,60 +1347,60 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1397,60 +1415,60 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1465,60 +1483,60 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1533,60 +1551,60 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1601,60 +1619,60 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1669,60 +1687,60 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1737,61 +1755,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1805,61 +1823,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1873,60 +1891,60 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1941,60 +1959,60 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2009,60 +2027,60 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2077,60 +2095,60 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2145,60 +2163,60 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2213,60 +2231,60 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2281,60 +2299,60 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2349,60 +2367,60 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2417,60 +2435,60 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2485,60 +2503,60 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="P23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2553,60 +2571,60 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2621,60 +2639,60 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2689,60 +2707,60 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2757,60 +2775,60 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2825,60 +2843,60 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2893,60 +2911,60 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2961,60 +2979,60 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3029,60 +3047,60 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3097,60 +3115,60 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3165,60 +3183,60 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3233,60 +3251,60 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3301,60 +3319,60 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3369,60 +3387,60 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3437,60 +3455,60 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3505,61 +3523,61 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3573,61 +3591,61 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3641,60 +3659,60 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3709,60 +3727,60 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3777,60 +3795,60 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3845,60 +3863,60 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3913,60 +3931,60 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3981,61 +3999,61 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4049,61 +4067,61 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4117,60 +4135,60 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4185,60 +4203,60 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4253,60 +4271,60 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4321,60 +4339,60 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4389,60 +4407,60 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4457,60 +4475,60 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4525,60 +4543,60 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4593,60 +4611,60 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4661,60 +4679,60 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4729,60 +4747,60 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4797,60 +4815,60 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4865,60 +4883,60 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4933,60 +4951,60 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5001,61 +5019,61 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5069,61 +5087,61 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5137,60 +5155,60 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5205,60 +5223,60 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V63" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5273,60 +5291,60 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V64" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5341,60 +5359,60 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O65" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5409,60 +5427,60 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5477,60 +5495,60 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5545,60 +5563,60 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V68" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5613,60 +5631,60 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V69" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5681,60 +5699,60 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5749,60 +5767,60 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V71" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5817,60 +5835,60 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V72" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5885,60 +5903,60 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V73" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5953,61 +5971,61 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6021,60 +6039,264 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V75" s="2" t="s">
+      <c r="G76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V78" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-BAH.xlsx
+++ b/Excel-XLSX/UN-BAH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Fj61Yb</t>
+    <t>PsE6uD</t>
   </si>
   <si>
     <t>1985</t>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>38</t>
+  </si>
+  <si>
+    <t>240</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -1128,8 +1131,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1196,8 +1199,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1264,8 +1267,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1332,8 +1335,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1400,8 +1403,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1468,8 +1471,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1536,8 +1539,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1604,8 +1607,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1672,8 +1675,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1740,8 +1743,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1944,8 +1947,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2012,8 +2015,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2080,8 +2083,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2148,8 +2151,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2216,8 +2219,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2284,8 +2287,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2352,8 +2355,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2420,8 +2423,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2488,8 +2491,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2556,8 +2559,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2624,8 +2627,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2692,8 +2695,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2760,8 +2763,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2828,8 +2831,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2896,8 +2899,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2964,8 +2967,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3032,8 +3035,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3100,8 +3103,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3168,8 +3171,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3236,8 +3239,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3304,8 +3307,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3372,8 +3375,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3440,8 +3443,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3508,8 +3511,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3621,7 +3624,7 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>131</v>
@@ -3668,13 +3671,13 @@
         <v>115</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3712,8 +3715,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3736,13 +3739,13 @@
         <v>115</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3780,8 +3783,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3804,13 +3807,13 @@
         <v>115</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3848,8 +3851,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3863,7 +3866,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>52</v>
@@ -3872,13 +3875,13 @@
         <v>115</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3916,8 +3919,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3931,7 +3934,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>54</v>
@@ -3940,13 +3943,13 @@
         <v>115</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -3984,8 +3987,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3999,7 +4002,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>56</v>
@@ -4008,13 +4011,13 @@
         <v>115</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4067,7 +4070,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>58</v>
@@ -4076,13 +4079,13 @@
         <v>115</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4135,22 +4138,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4188,8 +4191,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4206,19 +4209,19 @@
         <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4233,7 +4236,7 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>33</v>
@@ -4256,8 +4259,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4277,16 +4280,16 @@
         <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4301,7 +4304,7 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>33</v>
@@ -4324,8 +4327,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4339,22 +4342,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4392,8 +4395,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4413,16 +4416,16 @@
         <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4460,8 +4463,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4475,22 +4478,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4528,8 +4531,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4543,22 +4546,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4596,8 +4599,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4611,22 +4614,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4664,8 +4667,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4679,22 +4682,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4732,8 +4735,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4747,22 +4750,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4800,8 +4803,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -4815,22 +4818,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -4868,8 +4871,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -4883,22 +4886,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -4936,8 +4939,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -4951,22 +4954,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5004,8 +5007,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5025,16 +5028,16 @@
         <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5087,22 +5090,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5155,22 +5158,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5185,7 +5188,7 @@
         <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>33</v>
@@ -5208,8 +5211,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5223,22 +5226,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5276,8 +5279,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5291,22 +5294,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5344,8 +5347,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5359,7 +5362,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>67</v>
@@ -5368,13 +5371,13 @@
         <v>101</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5389,7 +5392,7 @@
         <v>31</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>33</v>
@@ -5412,8 +5415,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5427,22 +5430,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5480,8 +5483,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5501,16 +5504,16 @@
         <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5548,8 +5551,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5563,22 +5566,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5616,8 +5619,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5631,22 +5634,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5684,8 +5687,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -5705,16 +5708,16 @@
         <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5752,8 +5755,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -5767,22 +5770,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5820,8 +5823,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -5835,22 +5838,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -5888,8 +5891,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -5903,22 +5906,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -5956,8 +5959,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -5971,22 +5974,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6039,22 +6042,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6107,22 +6110,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6137,7 +6140,7 @@
         <v>31</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>33</v>
@@ -6160,8 +6163,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6175,23 +6178,23 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>31</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>33</v>
@@ -6228,8 +6231,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6243,22 +6246,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6273,7 +6276,7 @@
         <v>31</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>33</v>
@@ -6296,8 +6299,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BAH.xlsx
+++ b/Excel-XLSX/UN-BAH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,45 +90,306 @@
     <t>PsE6uD</t>
   </si>
   <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1985</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>BHR</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>United Rep. of Tanzania</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -138,475 +399,232 @@
     <t>EGY</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>4</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>6</t>
+    <t>251</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>7</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
-    <t>9</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>10</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>11</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>12</t>
+    <t>241</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>74</t>
   </si>
   <si>
     <t>240</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>JOR</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>United Rep. of Tanzania</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>1650</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1009,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1093,46 +1111,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1146,61 +1164,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1217,58 +1235,58 @@
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1282,61 +1300,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1350,61 +1368,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1418,61 +1436,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1486,61 +1504,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1554,61 +1572,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1622,61 +1640,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1690,61 +1708,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1758,61 +1776,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1826,61 +1844,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1894,61 +1912,61 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1962,61 +1980,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2030,61 +2048,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2098,61 +2116,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2166,61 +2184,61 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2234,61 +2252,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2302,61 +2320,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2370,61 +2388,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2438,61 +2456,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2506,61 +2524,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2574,61 +2592,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2642,61 +2660,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2710,61 +2728,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -2778,61 +2796,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2846,61 +2864,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2914,61 +2932,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2982,61 +3000,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3050,61 +3068,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -3118,61 +3136,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -3186,61 +3204,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3254,61 +3272,61 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3322,61 +3340,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3390,61 +3408,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="I36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3458,61 +3476,61 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3526,61 +3544,61 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3594,61 +3612,61 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3662,61 +3680,61 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -3730,61 +3748,61 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -3798,61 +3816,61 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -3866,61 +3884,61 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -3934,61 +3952,61 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -4002,61 +4020,61 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -4070,61 +4088,61 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -4138,61 +4156,61 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -4206,61 +4224,61 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -4274,61 +4292,61 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -4342,61 +4360,61 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -4410,61 +4428,61 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -4478,61 +4496,61 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -4546,61 +4564,61 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -4614,61 +4632,61 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -4682,61 +4700,61 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -4750,61 +4768,61 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -4818,61 +4836,61 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -4886,61 +4904,61 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O58" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -4954,61 +4972,61 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -5022,61 +5040,61 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -5090,61 +5108,61 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -5158,61 +5176,61 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -5226,61 +5244,61 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -5294,61 +5312,61 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -5362,61 +5380,61 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -5430,61 +5448,61 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -5498,61 +5516,61 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -5566,61 +5584,61 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -5634,61 +5652,61 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -5702,61 +5720,61 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -5770,61 +5788,61 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -5838,61 +5856,61 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="O72" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -5906,61 +5924,61 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -5974,61 +5992,61 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -6042,61 +6060,61 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="P75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -6110,61 +6128,61 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -6178,61 +6196,61 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -6246,61 +6264,401 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BAH.xlsx
+++ b/Excel-XLSX/UN-BAH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>PsE6uD</t>
+    <t>3Xx1rt</t>
   </si>
   <si>
     <t>1974</t>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>236</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>81</t>
@@ -6433,7 +6436,7 @@
         <v>200</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>34</v>
@@ -6536,7 +6539,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>198</v>
@@ -6604,7 +6607,7 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>198</v>
